--- a/replication/temp/figureA2_bac_test_primary.xlsx
+++ b/replication/temp/figureA2_bac_test_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>hour</t>
   </si>
@@ -34,7 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(1.74)</t>
+  </si>
+  <si>
+    <t>(0.64)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(1.89)</t>
+  </si>
+  <si>
+    <t>(1.28)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(1.47)</t>
+  </si>
+  <si>
+    <t>(0.87)</t>
+  </si>
+  <si>
+    <t>(1.06)</t>
+  </si>
+  <si>
+    <t>(0.97)</t>
+  </si>
+  <si>
+    <t>(1.31)</t>
+  </si>
+  <si>
+    <t>(1.3)</t>
+  </si>
+  <si>
+    <t>(1.26)</t>
+  </si>
+  <si>
+    <t>(3.34)</t>
   </si>
 </sst>
 </file>
@@ -499,28 +547,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -560,28 +608,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>

--- a/replication/temp/figureA2_bac_test_primary.xlsx
+++ b/replication/temp/figureA2_bac_test_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>hour</t>
   </si>
@@ -34,55 +34,58 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(1.74)</t>
-  </si>
-  <si>
-    <t>(0.64)</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>(0.48)</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
+    <t>(1.97)</t>
+  </si>
+  <si>
+    <t>(1.52)</t>
+  </si>
+  <si>
+    <t>(0.89)</t>
+  </si>
+  <si>
+    <t>(0.86)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(1.36)</t>
+  </si>
+  <si>
+    <t>(0.88)</t>
+  </si>
+  <si>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>(0.68)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
   </si>
   <si>
     <t>(0.3)</t>
   </si>
   <si>
-    <t>(1.89)</t>
-  </si>
-  <si>
-    <t>(1.28)</t>
-  </si>
-  <si>
-    <t>(0.51)</t>
-  </si>
-  <si>
-    <t>(1.47)</t>
-  </si>
-  <si>
-    <t>(0.87)</t>
-  </si>
-  <si>
-    <t>(1.06)</t>
-  </si>
-  <si>
-    <t>(0.97)</t>
-  </si>
-  <si>
-    <t>(1.31)</t>
-  </si>
-  <si>
-    <t>(1.3)</t>
-  </si>
-  <si>
-    <t>(1.26)</t>
-  </si>
-  <si>
-    <t>(3.34)</t>
+    <t>(0.0)</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
+  </si>
+  <si>
+    <t>(0.91)</t>
+  </si>
+  <si>
+    <t>(0.96)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
